--- a/maestro.xlsx
+++ b/maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\UnificadorDeTelefonos\UnificadorTelefonos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4998260C-9CAE-4CAE-8439-6548CFBE93B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608033B-E212-422E-BEBF-7E83988B43F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,11 +462,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/maestro.xlsx
+++ b/maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\UnificadorDeTelefonos\UnificadorTelefonos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608033B-E212-422E-BEBF-7E83988B43F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF2279-67F1-4542-995A-52B54471F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,27 +126,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -155,7 +140,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -460,145 +445,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
         <v>25</v>
       </c>
     </row>
